--- a/log_history/Y4_B2526_Cardiology_checklist1761804109127_08d8a653bec8cea6d369ec91345a0700ef109c09ff74e4a7475d684083459158.xlsx
+++ b/log_history/Y4_B2526_Cardiology_checklist1761804109127_08d8a653bec8cea6d369ec91345a0700ef109c09ff74e4a7475d684083459158.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23637527-A2E8-4B1F-8AF1-7D1E4C994CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D8E163-2276-44D7-A91C-144AA0983D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,6 +263,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -295,7 +298,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,25 +641,26 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -666,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -686,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -726,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -746,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -766,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -786,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -806,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -826,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -846,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -866,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -886,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -906,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -926,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -946,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -966,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -986,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
